--- a/changes.xlsx
+++ b/changes.xlsx
@@ -443,700 +443,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 805', 'archived': False, 'modificationDate': '2023-07-10T14:50:38+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-17T14:50:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '24d9c4e2-e322-4c95-acf1-f5e0f98b5924', 'creationDate': '2023-07-10T14:50:38+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Elst, Industrieweg Oost 7a'}}, 'number': 'WM2307 805', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 781', 'archived': False, 'modificationDate': '2023-07-10T13:10:31+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-17T13:10:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '816c464c-266d-49f5-a627-5e439db29b31', 'creationDate': '2023-07-10T13:10:31+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Zaandam, Penningweg 106d/108e'}}, 'number': 'WM2307 781', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 768', 'archived': False, 'modificationDate': '2023-07-10T12:43:11+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-17T12:39:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': '1df21339-d0e2-4081-9183-d535ad8d84a2', 'creationDate': '2023-07-10T12:39:54+0000', 'briefDescription': 'Alltrack WMO', 'status': {'name': 'In behandeling', 'id': 'a5062657-b277-4019-ab7d-fed9ea6a350e'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2307 768', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 767', 'archived': False, 'modificationDate': '2023-07-10T13:32:13+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-17T12:37:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': 'd082d3d1-69e1-47f7-b031-0c13a8b47806', 'creationDate': '2023-07-10T12:37:42+0000', 'briefDescription': 'Tablet/PDA aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2307 767', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 760', 'archived': False, 'modificationDate': '2023-07-10T12:15:28+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-17T12:11:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'c02ec287-f6a7-43bb-81a2-f5456642a820', 'creationDate': '2023-07-10T12:11:31+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Tilburg, Mina Krusemanweg 2'}}, 'number': 'WM2307 760', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 754', 'archived': False, 'modificationDate': '2023-07-10T11:16:38+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-17T11:16:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'ead63c01-3b3b-43cf-96a9-a7622a3fae39', 'creationDate': '2023-07-10T11:16:38+0000', 'briefDescription': 'Mobiele telefoon aanvragen', 'status': {'name': 'Wachten op goedkeuring', 'id': 'b96820fb-32a3-4ebc-bd25-a86d462dedfa'}}</t>
+          <t>{'requester': {'branch': {'name': 'Helmond, Gerstdijk 2'}}, 'number': 'WM2307 754', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 735', 'archived': False, 'modificationDate': '2023-07-10T09:29:10+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-17T09:29:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '18b11ea2-5e23-426a-983a-a005439256a6', 'creationDate': '2023-07-10T09:29:10+0000', 'briefDescription': 'Losse simkaart aanvragen', 'status': {'name': 'Wachten op goedkeuring', 'id': 'b96820fb-32a3-4ebc-bd25-a86d462dedfa'}}</t>
+          <t>{'requester': {'branch': {'name': 'Purmerend, Volume 28-30'}}, 'number': 'WM2307 735', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 712', 'archived': False, 'modificationDate': '2023-07-10T08:01:36+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-17T08:01:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '082f6d4b-a370-4b56-b979-60fbf96bd750', 'creationDate': '2023-07-10T08:01:36+0000', 'briefDescription': 'Mobiele telefoon aanvragen', 'status': {'name': 'Wachten op goedkeuring', 'id': 'b96820fb-32a3-4ebc-bd25-a86d462dedfa'}}</t>
+          <t>{'requester': {'branch': {'name': 'Houten, Essenkade 4'}}, 'number': 'WM2307 712', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 704', 'archived': False, 'modificationDate': '2023-07-10T09:10:03+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-17T07:33:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '8c9fbdb4-215e-42da-b69d-2f5afa013cb2', 'creationDate': '2023-07-10T07:33:16+0000', 'briefDescription': 'Mobiele telefoon aanvragen', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2307 704', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 697', 'archived': False, 'modificationDate': '2023-07-10T07:13:16+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-26T06:42:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Ron van Gemert', 'id': 'b02a3c06-c789-4250-9a5a-23a37adf037f', 'type': 'operator'}}, 'id': 'e7d0e0b8-2e4c-4491-b4b9-9f667b3c69da', 'creationDate': '2023-07-10T06:42:42+0000', 'briefDescription': 'Overige aanvragen', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2307 697', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Ron van Gemert'}}}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 679', 'archived': False, 'modificationDate': '2023-07-09T06:40:04+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-14T15:30:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'fbf162eb-c68b-46c3-a22f-244c234c9110', 'creationDate': '2023-07-09T06:40:04+0000', 'briefDescription': 'Tablet/PDA aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Zaandam, Penningweg 106d/108e'}}, 'number': 'WM2307 679', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 652', 'archived': False, 'modificationDate': '2023-07-10T08:00:59+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-25T12:55:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Rob Verbaan', 'id': '7447f90e-ff39-4025-8806-aa451406f168', 'type': 'operator'}}, 'id': 'd3deb558-27ec-409b-a4a9-e861012d655e', 'creationDate': '2023-07-07T12:55:39+0000', 'briefDescription': 'Overige werkplek aanvragen - manager', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2307 652', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Rob Verbaan'}}}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 644', 'archived': False, 'modificationDate': '2023-07-07T12:16:47+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-14T11:49:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'b9459525-2299-48af-932b-5fcb63319103', 'creationDate': '2023-07-07T11:49:28+0000', 'briefDescription': 'Vaste PC aanvraag', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Zaandam, Penningweg 106d/108e'}}, 'number': 'WM2307 644', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 614', 'archived': False, 'modificationDate': '2023-07-10T07:09:52+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-25T08:41:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Ron van Gemert', 'id': 'b02a3c06-c789-4250-9a5a-23a37adf037f', 'type': 'operator'}}, 'id': '89f64b16-32d1-4027-9490-fefd89035f7d', 'creationDate': '2023-07-07T08:41:24+0000', 'briefDescription': 'Overige telefonie aanvragen', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Venlo, Willem Barentszweg 8'}}, 'number': 'WM2307 614', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Ron van Gemert'}}}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 583', 'archived': False, 'modificationDate': '2023-07-09T22:37:14+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-13T14:03:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': '5167dbef-6568-462f-a310-a4c8f23576e6', 'creationDate': '2023-07-06T14:03:01+0000', 'briefDescription': 'Koptelefoon met noise cancelling', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Standaardvestiging'}}, 'number': 'WM2307 583', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 582', 'archived': False, 'modificationDate': '2023-07-09T22:37:02+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-13T14:01:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': 'df7bcc45-2443-405c-8bc2-3f49bfac9136', 'creationDate': '2023-07-06T14:01:50+0000', 'briefDescription': 'Tablet/PDA aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Standaardvestiging'}}, 'number': 'WM2307 582', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 565', 'archived': False, 'modificationDate': '2023-07-09T22:39:35+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-13T12:04:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'df262332-5bd7-4307-a987-00fd31ab914d', 'creationDate': '2023-07-06T12:04:30+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Weesp, Pampuslaan 103-111'}}, 'number': 'WM2307 565', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 544', 'archived': False, 'modificationDate': '2023-07-06T09:30:10+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-13T09:30:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '34c89ae1-232c-497c-beb1-092df7e4e27b', 'creationDate': '2023-07-06T09:30:10+0000', 'briefDescription': 'Mobiele telefoon aanvragen', 'status': {'name': 'Wachten op goedkeuring', 'id': 'b96820fb-32a3-4ebc-bd25-a86d462dedfa'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Reactorweg 160'}}, 'number': 'WM2307 544', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 524', 'archived': False, 'modificationDate': '2023-07-07T06:48:56+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-24T07:27:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': 'b8b15925-27a3-473a-97f5-75c34e36c7b8', 'creationDate': '2023-07-06T07:27:41+0000', 'briefDescription': 'Overige werkplek aanvragen', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2307 524', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 518', 'archived': False, 'modificationDate': '2023-07-10T09:29:42+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-20T06:37:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'd480bd95-21b3-45f3-a108-840e4d2b9bed', 'creationDate': '2023-07-06T06:37:41+0000', 'briefDescription': 'Overige applicatie aanvragen', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Heerlen, Cronjestraat 11'}}, 'number': 'WM2307 518', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 416', 'archived': False, 'modificationDate': '2023-07-05T07:43:26+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-12T07:43:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '39434257-db97-418f-bec1-6e6aab0e9231', 'creationDate': '2023-07-05T07:43:26+0000', 'briefDescription': 'Tablet/PDA aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2307 416', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 369', 'archived': False, 'modificationDate': '2023-07-04T13:48:41+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-11T13:42:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '95a5a8f5-764e-4186-bc13-e2ba9f6f6ac5', 'creationDate': '2023-07-04T13:42:25+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2307 369', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 327', 'archived': False, 'modificationDate': '2023-07-05T11:07:35+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-20T10:55:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': 'c8b4ae92-6e7c-4588-a408-56acb00be84c', 'creationDate': '2023-07-04T10:55:34+0000', 'briefDescription': 'Overige aanvragen', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Helmond, Lagedijk 19'}}, 'number': 'WM2307 327', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 312', 'archived': False, 'modificationDate': '2023-07-07T09:52:25+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-08-04T09:50:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': '5c5a5926-8e74-4f55-9a74-091f2054951b', 'creationDate': '2023-07-04T09:50:14+0000', 'briefDescription': 'Mobiele telefoon aanvragen', 'status': {'name': 'In behandeling', 'id': 'a5062657-b277-4019-ab7d-fed9ea6a350e'}}</t>
+          <t>{'requester': {'branch': {'name': 'Elst, Industrieweg Oost 7a'}}, 'number': 'WM2307 312', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 263', 'archived': False, 'modificationDate': '2023-07-10T12:27:15+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-08-18T07:20:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': '501716f4-96b3-49d2-bccc-549bbba1ffc9', 'creationDate': '2023-07-04T07:20:42+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Elst, Industrieweg Oost 7a'}}, 'number': 'WM2307 263', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 189', 'archived': False, 'modificationDate': '2023-07-07T09:00:53+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-10T11:44:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': '66cd3a06-2e72-44ff-b735-52ab94ffbbe7', 'creationDate': '2023-07-03T11:44:16+0000', 'briefDescription': 'Tweede monitor', 'status': {'name': 'In behandeling', 'id': 'a5062657-b277-4019-ab7d-fed9ea6a350e'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2307 189', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 166', 'archived': False, 'modificationDate': '2023-07-05T07:06:14+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-10T09:37:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '83834b30-8aa6-4663-9268-7bbfb9f10b10', 'creationDate': '2023-07-03T09:37:26+0000', 'briefDescription': 'Stickerprinter aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Purmerend, Volume 28-30'}}, 'number': 'WM2307 166', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'number': 'WM2307 061', 'archived': False, 'modificationDate': '2023-07-06T11:41:50+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-18T15:30:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': 'bf0e34bb-626a-428a-a690-c646654701ff', 'creationDate': '2023-07-01T12:19:47+0000', 'briefDescription': 'Overige aanvragen', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Meppel, Eekhorstweg 17'}}, 'number': 'WM2307 061', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2564', 'archived': False, 'modificationDate': '2023-07-10T12:07:48+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-18T12:44:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Rob Verbaan', 'id': '7447f90e-ff39-4025-8806-aa451406f168', 'type': 'operator'}}, 'id': '56feb93d-b548-4b38-a466-72698940b45a', 'creationDate': '2023-06-30T12:44:01+0000', 'briefDescription': 'Overige werkplek aanvragen', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 2564', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Rob Verbaan'}}}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2558', 'archived': False, 'modificationDate': '2023-06-30T11:57:33+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-07T11:57:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'ea04545b-947d-4864-867a-f592c5e19151', 'creationDate': '2023-06-30T11:57:33+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Venlo, Willem Barentszweg 8'}}, 'number': 'WM2306 2558', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2548', 'archived': False, 'modificationDate': '2023-06-30T09:43:52+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-07T09:43:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '10cf671d-a3e8-48ba-a6b8-3f613fcbd87b', 'creationDate': '2023-06-30T09:43:36+0000', 'briefDescription': 'Stickerprinter aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Drachten, Jade 32'}}, 'number': 'WM2306 2548', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2547', 'archived': False, 'modificationDate': '2023-06-30T09:44:04+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-07T09:43:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'a7620fdb-a961-4ab3-a035-af4ca5137ec1', 'creationDate': '2023-06-30T09:43:01+0000', 'briefDescription': 'Stickerprinter aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Drachten, Jade 32'}}, 'number': 'WM2306 2547', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2546', 'archived': False, 'modificationDate': '2023-06-30T09:44:12+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-07T09:42:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '5c20a044-0d28-4583-8a0c-a0d0284023a6', 'creationDate': '2023-06-30T09:42:19+0000', 'briefDescription': 'Stickerprinter aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Drachten, Jade 32'}}, 'number': 'WM2306 2546', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2528', 'archived': False, 'modificationDate': '2023-06-30T07:52:29+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-07T07:52:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '715ff270-4d0e-47e3-a391-427751df7f38', 'creationDate': '2023-06-30T07:52:29+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 2528', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2511', 'archived': False, 'modificationDate': '2023-06-30T07:04:41+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-07T07:02:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'c4539297-9b1c-45a9-8ee2-e84a87aab16e', 'creationDate': '2023-06-30T07:02:22+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Standaardvestiging'}}, 'number': 'WM2306 2511', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2440', 'archived': False, 'modificationDate': '2023-07-05T10:15:02+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-06T13:11:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': 'b1cc00fb-f7d2-4aae-a847-d3464d57a0f8', 'creationDate': '2023-06-29T13:11:52+0000', 'briefDescription': 'Randapparatuur aanvraag', 'status': {'name': 'Wacht op aanvrager', 'id': '7c829f3e-15a9-4d1d-bac3-45b91d2af2e9'}}</t>
+          <t>{'requester': {'branch': {'name': 'Zaandam, Penningweg 106d/108e'}}, 'number': 'WM2306 2440', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2437', 'archived': False, 'modificationDate': '2023-06-29T12:51:39+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-06T12:51:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '602df4be-c317-4dca-8b40-f10c8be9e21f', 'creationDate': '2023-06-29T12:51:39+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 2437', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2436', 'archived': False, 'modificationDate': '2023-06-29T12:50:58+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-06T12:50:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '53ff112f-5e55-49a5-86e4-938df565c528', 'creationDate': '2023-06-29T12:50:58+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 2436', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2435', 'archived': False, 'modificationDate': '2023-06-29T12:50:24+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-06T12:50:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '248c4885-88ac-4171-a175-8e1b43f405ad', 'creationDate': '2023-06-29T12:50:24+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 2435', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2434', 'archived': False, 'modificationDate': '2023-06-29T12:49:46+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-06T12:49:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '0cf27bfe-48c0-4c76-a07c-ca1c4d745b39', 'creationDate': '2023-06-29T12:49:46+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 2434', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2433', 'archived': False, 'modificationDate': '2023-06-29T12:49:03+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-06T12:49:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '042f1193-a907-471e-9573-7e7203d4dc3c', 'creationDate': '2023-06-29T12:49:03+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 2433', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2432', 'archived': False, 'modificationDate': '2023-06-29T12:48:08+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-06T12:48:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '0a5a82e1-e854-4796-a241-da140151cdd4', 'creationDate': '2023-06-29T12:48:08+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 2432', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2431', 'archived': False, 'modificationDate': '2023-06-29T12:47:15+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-06T12:47:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '2c6c3235-fe07-4a33-96c4-5a18d8daf04e', 'creationDate': '2023-06-29T12:47:15+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 2431', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2377', 'archived': False, 'modificationDate': '2023-07-10T14:12:42+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-17T08:15:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': '4d7ff523-0213-4abc-92a7-d158a3323876', 'creationDate': '2023-06-29T08:15:00+0000', 'briefDescription': 'Overige werkplek aanvragen', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 2377', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2341', 'archived': False, 'modificationDate': '2023-06-29T11:54:22+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-05T14:28:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '4558ed83-4868-4b3a-9d47-4596b703c355', 'creationDate': '2023-06-28T14:28:52+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Goor, Dammaten 6'}}, 'number': 'WM2306 2341', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2329', 'archived': False, 'modificationDate': '2023-06-28T13:33:26+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-05T13:34:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '34039890-00b4-466e-bb12-52eafa9f96e1', 'creationDate': '2023-06-28T13:33:26+0000', 'briefDescription': 'Vaste telefoon', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2306 2329', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2287', 'archived': False, 'modificationDate': '2023-07-10T12:55:57+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-05T09:55:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': 'dc3fbca2-8023-4513-97af-98bd10d9c781', 'creationDate': '2023-06-28T09:55:36+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Dordrecht, Kamerlingh Onnesweg 9 -19'}}, 'number': 'WM2306 2287', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2286', 'archived': False, 'modificationDate': '2023-07-10T11:27:58+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-05T09:46:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': '79c67380-19d0-45b7-baf0-0f0773dd93d4', 'creationDate': '2023-06-28T09:46:59+0000', 'briefDescription': 'Mobiele telefoon aanvragen', 'status': {'name': 'In behandeling', 'id': 'a5062657-b277-4019-ab7d-fed9ea6a350e'}}</t>
+          <t>{'requester': {'branch': {'name': 'Goes, Klein Frankrijk 31'}}, 'number': 'WM2306 2286', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2268', 'archived': False, 'modificationDate': '2023-06-28T09:56:37+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-05T09:11:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': 'd138c236-4437-4a32-aa8c-47d773a7094b', 'creationDate': '2023-06-28T09:11:37+0000', 'briefDescription': 'Vaste PC aanvraag', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Dordrecht, Kamerlingh Onnesweg 9 -19'}}, 'number': 'WM2306 2268', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2266', 'archived': False, 'modificationDate': '2023-06-29T09:08:32+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-05T09:06:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '2c0d3144-1927-45d5-b97e-92f12e48b148', 'creationDate': '2023-06-28T09:06:16+0000', 'briefDescription': 'Randapparatuur aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Goes, Klein Frankrijk 31'}}, 'number': 'WM2306 2266', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2245', 'archived': False, 'modificationDate': '2023-07-10T11:48:30+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-05T07:03:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '913f40d2-3fb2-49e3-9dd0-3ee10001d542', 'creationDate': '2023-06-28T07:03:09+0000', 'briefDescription': 'Tweede monitor', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Zwijndrecht, Mandenmakersstraat 3-7'}}, 'number': 'WM2306 2245', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2192', 'archived': False, 'modificationDate': '2023-06-28T09:50:14+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-13T12:04:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Rob Verbaan', 'id': '7447f90e-ff39-4025-8806-aa451406f168', 'type': 'operator'}}, 'id': '82f05fb4-c5d9-466a-9059-2815b72e8cd6', 'creationDate': '2023-06-27T12:04:30+0000', 'briefDescription': 'Overige werkplek aanvragen', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Purmerend, Volume 28-30'}}, 'number': 'WM2306 2192', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Rob Verbaan'}}}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2179', 'archived': True, 'modificationDate': '2023-06-27T13:05:21+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-04T11:31:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'b7742b0d-6e9f-4611-9e55-61f3bf4ec7f4', 'creationDate': '2023-06-27T11:31:37+0000', 'briefDescription': 'Mobiele telefoon aanvragen', 'status': {'name': 'Geregistreerd', 'id': '02d7e424-5517-4d95-9438-efda06f0474e'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2306 2179', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2111', 'archived': False, 'modificationDate': '2023-07-03T12:55:57+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-04T06:41:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '5318c128-cb71-4bcd-a0d8-425a763e55f4', 'creationDate': '2023-06-27T06:41:08+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Arnhem, Hazenkamp 24'}}, 'number': 'WM2306 2111', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 2065', 'archived': False, 'modificationDate': '2023-07-10T11:13:24+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-10T12:13:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': '457eb71b-ee7d-4fd7-8fed-ea530e08f45c', 'creationDate': '2023-06-26T12:13:15+0000', 'briefDescription': 'Overige applicatie aanvragen', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2306 2065', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1919', 'archived': False, 'modificationDate': '2023-07-10T11:41:33+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-30T08:01:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'ad694695-e9cb-43c0-b9ad-4a693c4d93c6', 'creationDate': '2023-06-23T08:01:42+0000', 'briefDescription': 'Vaste PC aanvraag', 'status': {'name': 'Wachten op goedkeuring', 'id': 'b96820fb-32a3-4ebc-bd25-a86d462dedfa'}}</t>
+          <t>{'requester': {'branch': {'name': 'Amsterdam, Jarmuiden 58'}}, 'number': 'WM2306 1919', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1893', 'archived': False, 'modificationDate': '2023-07-10T12:28:57+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-29T15:08:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'c9223d80-7e0d-4db8-84de-b01dfd238edc', 'creationDate': '2023-06-22T15:08:14+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Afspraak gemaakt', 'id': '11135b5d-c687-4712-9159-6616735980a6'}}</t>
+          <t>{'requester': {'branch': {'name': 'Elst, Newtonweg 18'}}, 'number': 'WM2306 1893', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1793', 'archived': False, 'modificationDate': '2023-07-10T13:09:43+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-28T13:40:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': 'f032b7e3-8e12-4b6c-ae23-5e98fcf3674b', 'creationDate': '2023-06-21T13:40:52+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Wacht op aanvrager', 'id': '7c829f3e-15a9-4d1d-bac3-45b91d2af2e9'}}</t>
+          <t>{'requester': {'branch': {'name': 'Dordrecht, Kamerlingh Onnesweg 9 -19'}}, 'number': 'WM2306 1793', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1753', 'archived': False, 'modificationDate': '2023-06-21T09:13:51+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-28T09:13:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '3981d6bd-e6a7-49dc-a6ed-486e07752f4e', 'creationDate': '2023-06-21T09:13:51+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Amsterdam, Jarmuiden 58'}}, 'number': 'WM2306 1753', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1751', 'archived': False, 'modificationDate': '2023-06-21T09:12:01+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-28T09:12:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'fcb152b5-1436-4d7c-a66d-c10811c389bb', 'creationDate': '2023-06-21T09:12:01+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Amsterdam, Jarmuiden 58'}}, 'number': 'WM2306 1751', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1720', 'archived': False, 'modificationDate': '2023-06-21T06:33:53+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-28T06:28:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'adcf0973-d7e8-4b0a-ae15-7ce38ca312c9', 'creationDate': '2023-06-21T06:28:34+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Goor, Dammaten 6'}}, 'number': 'WM2306 1720', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1699', 'archived': False, 'modificationDate': '2023-06-20T15:09:47+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-27T13:43:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '18f8bb2e-3448-451f-b618-40be911399b0', 'creationDate': '2023-06-20T13:43:02+0000', 'briefDescription': 'Stickerprinter aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Dordrecht, Kamerlingh Onnesweg 9 -19'}}, 'number': 'WM2306 1699', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1545', 'archived': False, 'modificationDate': '2023-06-19T14:18:03+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-26T11:22:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '79ff07d9-d46a-44f6-848c-8b034c8b7230', 'creationDate': '2023-06-19T11:22:52+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 1545', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1400', 'archived': False, 'modificationDate': '2023-07-04T07:06:41+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-23T08:00:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Djinder Mangrey', 'id': 'c9889b3b-e028-4e7a-bd9d-b8dc85ea37fa', 'type': 'operator'}}, 'id': '6cdc8d95-6b4a-44ed-a7ca-e5c66c102775', 'creationDate': '2023-06-16T08:00:22+0000', 'briefDescription': 'Tablet/PDA aanvraag', 'status': {'name': 'Wacht op aanvrager', 'id': '7c829f3e-15a9-4d1d-bac3-45b91d2af2e9'}}</t>
+          <t>{'requester': {'branch': {'name': 'Hengelo, Hassinkweg 14'}}, 'number': 'WM2306 1400', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Djinder Mangrey'}}}</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1338', 'archived': False, 'modificationDate': '2023-06-15T09:21:32+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-22T09:22:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '83585267-5bb7-4782-80c0-a20ee49d02b0', 'creationDate': '2023-06-15T09:21:32+0000', 'briefDescription': 'Vaste telefoon', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Drachten, Tussendiepen 21'}}, 'number': 'WM2306 1338', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1188', 'archived': False, 'modificationDate': '2023-07-07T08:32:45+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-20T14:03:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Rob Verbaan', 'id': '7447f90e-ff39-4025-8806-aa451406f168', 'type': 'operator'}}, 'id': 'dedf0c7e-f984-4ebf-aec5-94f456262c25', 'creationDate': '2023-06-13T14:03:33+0000', 'briefDescription': 'Mobiele telefoon aanvragen Rene vd Zande', 'status': {'name': 'Wacht op aanvrager', 'id': '7c829f3e-15a9-4d1d-bac3-45b91d2af2e9'}}</t>
+          <t>{'requester': {'branch': {'name': 'Deventer, Hamburgweg 1'}}, 'number': 'WM2306 1188', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Rob Verbaan'}}}</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 1142', 'archived': False, 'modificationDate': '2023-06-26T07:12:53+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-20T09:45:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'aa84acb6-df0d-4d7d-8533-68a4791f77d4', 'creationDate': '2023-06-13T09:45:44+0000', 'briefDescription': 'Randapparatuur aanvraag', 'status': {'name': 'Wachten op goedkeuring', 'id': 'b96820fb-32a3-4ebc-bd25-a86d462dedfa'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2306 1142', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 795', 'archived': False, 'modificationDate': '2023-07-07T11:58:16+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-15T09:15:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'd8864159-f6d6-4a64-8072-d078d4ecf404', 'creationDate': '2023-06-08T09:15:02+0000', 'briefDescription': 'Stickerprinter aanvraag Stefan Kloosterman', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Deventer, Hamburgweg 1'}}, 'number': 'WM2306 795', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 794', 'archived': False, 'modificationDate': '2023-07-07T11:58:05+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-15T09:14:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '69367403-5117-4d0c-aa4c-ebee5d838565', 'creationDate': '2023-06-08T09:14:44+0000', 'briefDescription': 'Stickerprinter aanvraag Michel Kiers', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Deventer, Hamburgweg 1'}}, 'number': 'WM2306 794', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 789', 'archived': False, 'modificationDate': '2023-06-08T08:53:20+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-15T08:53:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '924b6338-331b-4f4d-ac65-6fab97dcfab8', 'creationDate': '2023-06-08T08:53:20+0000', 'briefDescription': 'Tablet/PDA aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 789', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 663', 'archived': False, 'modificationDate': '2023-07-04T12:34:48+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-14T07:55:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '7e335971-9243-4052-b7ae-07db88e3af71', 'creationDate': '2023-06-07T07:55:47+0000', 'briefDescription': 'laptop aanvraag Maarten de Waal', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Deventer, Hamburgweg 1'}}, 'number': 'WM2306 663', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 502', 'archived': False, 'modificationDate': '2023-07-07T11:57:52+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-13T07:20:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '96eb0cb8-43e7-4f77-9336-f924611f9df0', 'creationDate': '2023-06-06T07:20:05+0000', 'briefDescription': 'Stickerprinter aanvraag vervanging SPR0252', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Deventer, Hamburgweg 1'}}, 'number': 'WM2306 502', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 479', 'archived': False, 'modificationDate': '2023-06-20T14:01:35+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-21T14:25:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Rob Verbaan', 'id': '7447f90e-ff39-4025-8806-aa451406f168', 'type': 'operator'}}, 'id': '8a55dbee-13f4-43bd-87a7-f6473c43ced0', 'creationDate': '2023-06-05T14:25:58+0000', 'briefDescription': 'Overige aanvragen', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Meppel, Eekhorstweg 17'}}, 'number': 'WM2306 479', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Rob Verbaan'}}}</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 351', 'archived': False, 'modificationDate': '2023-06-05T08:10:08+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-20T14:38:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '4c11b524-cc27-42fd-9395-9d58e6f0c37c', 'creationDate': '2023-06-02T14:38:50+0000', 'briefDescription': 'Overige werkplek aanvragen - manager', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Elst, Industrieweg Oost 7a'}}, 'number': 'WM2306 351', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 203', 'archived': False, 'modificationDate': '2023-06-06T10:16:30+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-08T13:08:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'a3f32d06-850f-4589-af06-8fb0f1935f81', 'creationDate': '2023-06-01T13:08:45+0000', 'briefDescription': 'laptop aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Atoomweg 111'}}, 'number': 'WM2306 203', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'number': 'WM2306 122', 'archived': False, 'modificationDate': '2023-06-01T09:31:05+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-08T08:00:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'fa66fde1-81ef-43ea-856f-b28b01d56f1c', 'creationDate': '2023-06-01T08:00:52+0000', 'briefDescription': 'Losse simkaart aanvragen', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Reactorweg 160'}}, 'number': 'WM2306 122', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 2909', 'archived': False, 'modificationDate': '2023-06-29T12:38:19+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-07T09:30:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': '902ee753-9b00-458c-abb2-dc5b15d5e722', 'creationDate': '2023-05-31T09:30:08+0000', 'briefDescription': 'Losse simkaart aanvragen', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Elst, Newtonweg 18'}}, 'number': 'WM2305 2909', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 2770', 'archived': False, 'modificationDate': '2023-05-30T11:32:05+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-15T08:43:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Masoud Feruzan', 'id': '6e3279d5-c689-4e13-998e-2f7312db3432', 'type': 'operator'}}, 'id': 'bc72674c-3295-4bf6-9d96-a14d39481ee1', 'creationDate': '2023-05-30T08:43:10+0000', 'briefDescription': 'Overige werkplek aanvragen - manager', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Weesp, Pampuslaan 103-111'}}, 'number': 'WM2305 2770', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Masoud Feruzan'}}}</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 2591', 'archived': False, 'modificationDate': '2023-05-25T12:33:32+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-02T12:33:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'edae9ac9-8777-4ef2-b560-ea9f7052588c', 'creationDate': '2023-05-25T12:33:32+0000', 'briefDescription': 'Vaste PC aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Drachten, Tussendiepen 21'}}, 'number': 'WM2305 2591', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 2271', 'archived': False, 'modificationDate': '2023-07-10T08:38:17+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-09T07:47:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'f5c386fc-a2ae-4cb9-8c18-1e8465ff3c05', 'creationDate': '2023-05-23T07:47:33+0000', 'briefDescription': 'Overige werkplek aanvragen', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Wormerveer, Kikkertweg 3'}}, 'number': 'WM2305 2271', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 2240', 'archived': False, 'modificationDate': '2023-06-16T10:57:53+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-08T15:30:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'd7513302-2b21-4f0f-ac29-6b396d2c0a2b', 'creationDate': '2023-05-22T15:36:56+0000', 'briefDescription': 'Overige aanvragen', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Ravenstein, Korte Stukken 7'}}, 'number': 'WM2305 2240', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 2104', 'archived': False, 'modificationDate': '2023-05-22T06:40:59+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-05-26T15:04:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'f26cea67-818c-4706-9184-875be98207b9', 'creationDate': '2023-05-19T15:04:33+0000', 'briefDescription': 'Stickerprinter aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Deventer, Hamburgweg 1'}}, 'number': 'WM2305 2104', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 1766', 'archived': False, 'modificationDate': '2023-07-07T08:14:48+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-07-27T11:27:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Ron van Gemert', 'id': 'b02a3c06-c789-4250-9a5a-23a37adf037f', 'type': 'operator'}}, 'id': 'c0f15ff4-4335-4ebc-9b85-12e6e2ff62d7', 'creationDate': '2023-05-16T11:27:20+0000', 'briefDescription': 'Overige aanvragen', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Zaandam, Penningweg 106d/108e'}}, 'number': 'WM2305 1766', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Ron van Gemert'}}}</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 1752', 'archived': False, 'modificationDate': '2023-05-17T07:25:01+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-05T10:16:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '40178770-0e3b-4be6-b806-0bf8211259ae', 'creationDate': '2023-05-16T10:16:23+0000', 'briefDescription': 'Overige telefonie aanvragen', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Elst, Industrieweg Oost 7a'}}, 'number': 'WM2305 1752', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 1746', 'archived': False, 'modificationDate': '2023-05-16T09:39:36+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-05-24T09:39:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '6c238557-8550-4714-be59-93dc879d0b77', 'creationDate': '2023-05-16T09:39:36+0000', 'briefDescription': 'Vaste PC aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Zwijndrecht, Mandenmakersstraat 3-7'}}, 'number': 'WM2305 1746', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 1454', 'archived': False, 'modificationDate': '2023-06-20T07:09:44+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-06-01T07:34:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': 'e2a6953f-7b64-4a99-b6fb-6c8d5d5b45bf', 'creationDate': '2023-05-12T07:34:22+0000', 'briefDescription': 'Overige werkplek aanvragen - manager', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Zwijndrecht, Mandenmakersstraat 3-7'}}, 'number': 'WM2305 1454', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 1389', 'archived': False, 'modificationDate': '2023-05-11T11:26:41+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-05-19T11:27:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '2196c4bb-c6b5-4ca1-8ee8-2b0ad5f556a3', 'creationDate': '2023-05-11T11:26:41+0000', 'briefDescription': 'Vaste telefoon', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Helmond, Gerstdijk 2'}}, 'number': 'WM2305 1389', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 1254', 'archived': False, 'modificationDate': '2023-05-11T12:12:45+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-05-17T11:49:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'a8d5cb3f-bd59-4a94-881d-d7d4801c9ebc', 'creationDate': '2023-05-10T11:49:38+0000', 'briefDescription': 'Tweede monitor', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Goes, Klein Frankrijk 31'}}, 'number': 'WM2305 1254', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 1253', 'archived': False, 'modificationDate': '2023-05-10T11:53:42+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-05-17T11:46:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '8a059abe-180c-45e7-9472-37c2df54e0bc', 'creationDate': '2023-05-10T11:46:30+0000', 'briefDescription': 'Randapparatuur aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Goes, Klein Frankrijk 31'}}, 'number': 'WM2305 1253', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 963', 'archived': False, 'modificationDate': '2023-05-09T09:34:43+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-05-25T13:21:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '51d56cf6-ff48-401c-89de-b07a10e63f7c', 'creationDate': '2023-05-08T13:21:08+0000', 'briefDescription': 'Overige werkplek aanvragen - manager', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Tilburg, Mina Krusemanweg 2'}}, 'number': 'WM2305 963', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 884', 'archived': True, 'modificationDate': '2023-05-08T09:14:23+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-05-15T09:04:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '93784c6a-53f3-40bc-9748-d7a1a47a3df0', 'creationDate': '2023-05-08T09:04:31+0000', 'briefDescription': 'Mobiele telefoon aanvragen', 'status': {'name': 'Geregistreerd', 'id': '02d7e424-5517-4d95-9438-efda06f0474e'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2305 884', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>{'number': 'WM2305 569', 'archived': False, 'modificationDate': '2023-06-07T08:15:06+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-05-10T14:27:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Masoud Feruzan', 'id': '6e3279d5-c689-4e13-998e-2f7312db3432', 'type': 'operator'}}, 'id': '8aaa9400-aa38-4aa5-88a6-d4332379d735', 'creationDate': '2023-05-03T14:27:33+0000', 'briefDescription': 'Randapparatuur aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Venlo, Willem Barentszweg 8'}}, 'number': 'WM2305 569', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Masoud Feruzan'}}}</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>{'number': 'WM2304 2275', 'archived': False, 'modificationDate': '2023-07-05T09:05:30+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-05-15T08:07:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Rob Verbaan', 'id': '7447f90e-ff39-4025-8806-aa451406f168', 'type': 'operator'}}, 'id': 'cf60fc46-25e8-40b6-afe7-1e4fae5331c3', 'creationDate': '2023-04-25T08:07:21+0000', 'briefDescription': 'Printer aanvraag', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Utrecht, Reactorweg 160'}}, 'number': 'WM2304 2275', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Rob Verbaan'}}}</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>{'number': 'WM2303 3001', 'archived': False, 'modificationDate': '2023-06-12T13:27:58+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-04-19T10:35:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': '6c9c1c5e-0672-409f-8601-a449cdbe7e6a', 'creationDate': '2023-03-31T10:35:15+0000', 'briefDescription': 'Aanvraag: groter beeldscherm tbv Gijs Smits', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Helmond, Gerstdijk 2'}}, 'number': 'WM2303 3001', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>{'number': 'WM2303 2243', 'archived': False, 'modificationDate': '2023-04-20T12:07:30+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-03-24T16:30:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'e5fdf596-14dc-4ca1-8b9b-21d0b7bf3ef4', 'creationDate': '2023-03-23T08:59:29+0000', 'briefDescription': 'RFC: Opzeggen internetlijn winkel Nijmegen', 'status': {'name': 'In behandeling', 'id': 'a5062657-b277-4019-ab7d-fed9ea6a350e'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2303 2243', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>{'number': 'WM2303 1528', 'archived': False, 'modificationDate': '2023-03-15T11:09:40+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-03-22T10:35:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '950ae2ca-76a7-4b86-8aca-ec869d1b00fa', 'creationDate': '2023-03-15T10:35:01+0000', 'briefDescription': 'Randapparatuur aanvraag', 'status': {'name': 'Klaar om te starten', 'id': '4a816b9a-9bc7-4478-a89b-0e645e90eaea'}}</t>
+          <t>{'requester': {'branch': {'name': 'Goes, Klein Frankrijk 31'}}, 'number': 'WM2303 1528', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>{'number': 'WM2302 1317', 'archived': False, 'modificationDate': '2023-05-02T07:49:32+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-02-22T08:37:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Patrick Janssen', 'id': 'fb210bcd-1bd0-4a43-95c9-e82d22f823eb', 'type': 'operator'}}, 'id': '6e3a81f6-2490-48bb-a7c4-3356f7dc4149', 'creationDate': '2023-02-15T08:37:21+0000', 'briefDescription': 'Aanvraag: 9 x ZD421c', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2302 1317', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Patrick Janssen'}}}</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>{'number': 'WM2302 1159', 'archived': False, 'modificationDate': '2023-03-09T08:42:03+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-02-21T07:11:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': 'c6746404-d84d-4f2b-b948-9e30e68ccc5a', 'creationDate': '2023-02-14T07:11:12+0000', 'briefDescription': 'Vaste PC aanvraag', 'status': {'name': 'Reactie ontvangen', 'id': 'f4aab5af-9ea5-429c-bd26-737bb7e53d8f'}}</t>
+          <t>{'requester': {'branch': {'name': 'Goes, Klein Frankrijk 31'}}, 'number': 'WM2302 1159', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>{'number': 'WM2302 1145', 'archived': True, 'modificationDate': '2023-02-13T16:01:37+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2023-02-20T16:00:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Werkplekbeheer', 'id': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'type': 'operator'}}, 'id': '003594e2-9cac-4c78-9559-77621faca97c', 'creationDate': '2023-02-13T16:00:48+0000', 'briefDescription': 'Vaste PC aanvraag', 'status': {'name': 'Wachten op goedkeuring', 'id': 'b96820fb-32a3-4ebc-bd25-a86d462dedfa'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2302 1145', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Werkplekbeheer'}}}</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>{'number': 'WM2109 711', 'archived': True, 'modificationDate': '2021-09-10T12:32:10+0000', 'changeType': 'simple', 'simple': {'plannedImplementationDate': '2021-09-17T12:25:00+0000', 'implementationDate': None, 'closedDate': None, 'assignee': {'groupName': 'Werkplekbeheer', 'groupId': '46fc8aac-82fe-4488-bfdc-6261571092b5', 'name': 'Rob Verbaan', 'id': '7447f90e-ff39-4025-8806-aa451406f168', 'type': 'operator'}}, 'id': 'e870cdb2-bc69-4c1b-b3b6-848246fbbeca', 'creationDate': '2021-09-10T12:26:59+0000', 'briefDescription': 'Werkplekbeheer sjabloon', 'status': {'name': 'Wacht op leverancier', 'id': '444e0e8d-4604-4afd-bc8b-e7117be68c33'}}</t>
+          <t>{'requester': {'branch': {'name': 'Den Hoorn, Westernesse 16'}}, 'number': 'WM2109 711', 'simple': {'assignee': {'groupName': 'Werkplekbeheer', 'name': 'Rob Verbaan'}}}</t>
         </is>
       </c>
     </row>
